--- a/Data_inputs/MISERS_PlanInfo.xlsx
+++ b/Data_inputs/MISERS_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -1025,30 +1025,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Question:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Are the retirement benefits actuarially reduced if x% survivor options are chosen?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">COLA
 </t>
   </si>
@@ -1204,6 +1180,22 @@
   </si>
   <si>
     <t xml:space="preserve"> - Non-Duty disability is the majority, all disabilities are assumed to be non-duty for now</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Question:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Are the retirement benefits actuarially reduced if x% survivor options are chosen? Yes </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1690,9 +1682,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1720,12 +1709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,6 +1807,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2989,8 +2981,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,8 +3019,8 @@
       <c r="B5" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="134" t="s">
-        <v>162</v>
+      <c r="C5" s="131" t="s">
+        <v>161</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -3047,7 +3039,7 @@
         <v>147</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>149</v>
@@ -3062,7 +3054,7 @@
       </c>
       <c r="B9" s="79"/>
       <c r="C9" s="80" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,9 +3063,9 @@
     </row>
     <row r="11" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="132">
+        <v>150</v>
+      </c>
+      <c r="B11" s="129">
         <v>0.03</v>
       </c>
     </row>
@@ -3188,7 +3180,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -3220,440 +3212,440 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
     </row>
     <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="E11" s="99"/>
-      <c r="F11" s="101" t="s">
+      <c r="E11" s="132"/>
+      <c r="F11" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="99" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="103">
+      <c r="E12" s="100">
         <v>45</v>
       </c>
-      <c r="F12" s="104">
+      <c r="F12" s="101">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="106">
+      <c r="E13" s="103">
         <v>46</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="104">
         <v>28</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="106">
+      <c r="E14" s="103">
         <v>47</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="104">
         <v>28</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="106">
+      <c r="E15" s="103">
         <v>48</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="104">
         <v>28</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="106">
+      <c r="E16" s="103">
         <v>49</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="104">
         <v>28</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="106">
+      <c r="E17" s="103">
         <v>50</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="104">
         <v>28</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="106">
+      <c r="E18" s="103">
         <v>51</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="104">
         <v>28</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="106">
         <v>0.27</v>
       </c>
-      <c r="H18" s="108"/>
+      <c r="H18" s="105"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="106">
+      <c r="E19" s="103">
         <v>52</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="104">
         <v>28</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="107">
         <v>21</v>
       </c>
-      <c r="H19" s="108"/>
+      <c r="H19" s="105"/>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="106">
+      <c r="E20" s="103">
         <v>53</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="104">
         <v>28</v>
       </c>
-      <c r="G20" s="110">
+      <c r="G20" s="107">
         <v>14</v>
       </c>
-      <c r="H20" s="108"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="106">
+      <c r="E21" s="103">
         <v>54</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="104">
         <v>28</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="107">
         <v>16</v>
       </c>
-      <c r="H21" s="108"/>
+      <c r="H21" s="105"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="106">
+      <c r="E22" s="103">
         <v>55</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="104">
         <v>28</v>
       </c>
-      <c r="G22" s="110">
+      <c r="G22" s="107">
         <v>16</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="106">
         <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="106">
+      <c r="E23" s="103">
         <v>56</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="104">
         <v>28</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="107">
         <v>22</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="108">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="106">
+      <c r="E24" s="103">
         <v>57</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="104">
         <v>28</v>
       </c>
-      <c r="G24" s="110">
+      <c r="G24" s="107">
         <v>15</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="108">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="106">
+      <c r="E25" s="103">
         <v>58</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="104">
         <v>28</v>
       </c>
-      <c r="G25" s="110">
+      <c r="G25" s="107">
         <v>12</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="108">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="106">
+      <c r="E26" s="103">
         <v>59</v>
       </c>
-      <c r="F26" s="107">
+      <c r="F26" s="104">
         <v>28</v>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="107">
         <v>12</v>
       </c>
-      <c r="H26" s="111">
+      <c r="H26" s="108">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="106">
+      <c r="E27" s="103">
         <v>60</v>
       </c>
-      <c r="F27" s="107">
+      <c r="F27" s="104">
         <v>28</v>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="107">
         <v>18</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="108">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="106">
+      <c r="E28" s="103">
         <v>61</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="104">
         <v>28</v>
       </c>
-      <c r="G28" s="110">
+      <c r="G28" s="107">
         <v>18</v>
       </c>
-      <c r="H28" s="111">
+      <c r="H28" s="108">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="106">
+      <c r="E29" s="103">
         <v>62</v>
       </c>
-      <c r="F29" s="107">
+      <c r="F29" s="104">
         <v>50</v>
       </c>
-      <c r="G29" s="110">
+      <c r="G29" s="107">
         <v>32</v>
       </c>
-      <c r="H29" s="111">
+      <c r="H29" s="108">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="106">
+      <c r="E30" s="103">
         <v>63</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="104">
         <v>40</v>
       </c>
-      <c r="G30" s="110">
+      <c r="G30" s="107">
         <v>24</v>
       </c>
-      <c r="H30" s="111">
+      <c r="H30" s="108">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="106">
+      <c r="E31" s="103">
         <v>64</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="104">
         <v>40</v>
       </c>
-      <c r="G31" s="110">
+      <c r="G31" s="107">
         <v>22</v>
       </c>
-      <c r="H31" s="111">
+      <c r="H31" s="108">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="106">
+      <c r="E32" s="103">
         <v>65</v>
       </c>
-      <c r="F32" s="107">
+      <c r="F32" s="104">
         <v>60</v>
       </c>
-      <c r="G32" s="110">
+      <c r="G32" s="107">
         <v>16</v>
       </c>
-      <c r="H32" s="111">
+      <c r="H32" s="108">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="106">
+      <c r="E33" s="103">
         <v>66</v>
       </c>
-      <c r="F33" s="107">
+      <c r="F33" s="104">
         <v>50</v>
       </c>
-      <c r="G33" s="110">
+      <c r="G33" s="107">
         <v>22</v>
       </c>
-      <c r="H33" s="111">
+      <c r="H33" s="108">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="106">
+      <c r="E34" s="103">
         <v>67</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="104">
         <v>50</v>
       </c>
-      <c r="G34" s="110">
+      <c r="G34" s="107">
         <v>30</v>
       </c>
-      <c r="H34" s="111">
+      <c r="H34" s="108">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="106">
+      <c r="E35" s="103">
         <v>68</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F35" s="104">
         <v>50</v>
       </c>
-      <c r="G35" s="110">
+      <c r="G35" s="107">
         <v>40</v>
       </c>
-      <c r="H35" s="111">
+      <c r="H35" s="108">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="106">
+      <c r="E36" s="103">
         <v>69</v>
       </c>
-      <c r="F36" s="107">
+      <c r="F36" s="104">
         <v>50</v>
       </c>
-      <c r="G36" s="110">
+      <c r="G36" s="107">
         <v>50</v>
       </c>
-      <c r="H36" s="111">
+      <c r="H36" s="108">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="106">
+      <c r="E37" s="103">
         <v>70</v>
       </c>
-      <c r="F37" s="107">
+      <c r="F37" s="104">
         <v>100</v>
       </c>
-      <c r="G37" s="110">
+      <c r="G37" s="107">
         <v>100</v>
       </c>
-      <c r="H37" s="111">
+      <c r="H37" s="108">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="106">
+      <c r="E38" s="103">
         <v>71</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="104">
         <v>100</v>
       </c>
-      <c r="G38" s="110">
+      <c r="G38" s="107">
         <v>100</v>
       </c>
-      <c r="H38" s="111">
+      <c r="H38" s="108">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="106">
+      <c r="E39" s="103">
         <v>72</v>
       </c>
-      <c r="F39" s="107">
+      <c r="F39" s="104">
         <v>100</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="107">
         <v>100</v>
       </c>
-      <c r="H39" s="111">
+      <c r="H39" s="108">
         <v>70</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="106">
+      <c r="E40" s="103">
         <v>73</v>
       </c>
-      <c r="F40" s="107">
+      <c r="F40" s="104">
         <v>100</v>
       </c>
-      <c r="G40" s="110">
+      <c r="G40" s="107">
         <v>100</v>
       </c>
-      <c r="H40" s="111">
+      <c r="H40" s="108">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="106">
+      <c r="E41" s="103">
         <v>74</v>
       </c>
-      <c r="F41" s="107">
+      <c r="F41" s="104">
         <v>100</v>
       </c>
-      <c r="G41" s="110">
+      <c r="G41" s="107">
         <v>100</v>
       </c>
-      <c r="H41" s="111">
+      <c r="H41" s="108">
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="112">
+      <c r="E42" s="109">
         <v>75</v>
       </c>
-      <c r="F42" s="113">
+      <c r="F42" s="110">
         <v>100</v>
       </c>
-      <c r="G42" s="114">
+      <c r="G42" s="111">
         <v>100</v>
       </c>
-      <c r="H42" s="115">
+      <c r="H42" s="112">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="116" t="s">
+      <c r="E43" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="117">
+      <c r="F43" s="114">
         <v>1603</v>
       </c>
-      <c r="G43" s="117">
+      <c r="G43" s="114">
         <v>1604</v>
       </c>
-      <c r="H43" s="118">
+      <c r="H43" s="115">
         <v>1605</v>
       </c>
     </row>
@@ -3682,50 +3674,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="116" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="120">
+      <c r="B5" s="117">
         <v>55</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="118">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="122">
+      <c r="B6" s="119">
         <v>56</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="120">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="122">
+      <c r="B7" s="119">
         <v>57</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="120">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="122">
+      <c r="B8" s="119">
         <v>58</v>
       </c>
-      <c r="C8" s="123">
+      <c r="C8" s="120">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="124">
+      <c r="B9" s="121">
         <v>59</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="122">
         <v>7</v>
       </c>
     </row>
@@ -3740,7 +3732,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3767,18 +3759,18 @@
     </row>
     <row r="4" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,12 +3778,12 @@
         <v>65</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
     </row>
     <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4228,8 +4220,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,14 +4247,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="90" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="78"/>
     </row>
@@ -4448,10 +4440,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4459,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="52"/>
     </row>
@@ -4523,8 +4515,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,7 +4541,7 @@
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4694,7 +4686,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4752,7 +4744,7 @@
       <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="89" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4763,15 +4755,15 @@
       <c r="B9" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="91" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="92" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4791,7 +4783,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,7 +4815,7 @@
       <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="124" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3"/>
@@ -4832,7 +4824,7 @@
       <c r="A8" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="93">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -4840,7 +4832,7 @@
       <c r="A9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="93">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -4853,10 +4845,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="127" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4864,15 +4856,15 @@
       <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="128" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="126"/>
+      <c r="B16" s="123"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4922,10 +4914,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4938,82 +4930,82 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="A7" s="96">
         <v>20</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="97">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="97">
+      <c r="A8" s="96">
         <v>25</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="97">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="97">
+      <c r="A9" s="96">
         <v>30</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="97">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="97">
+      <c r="A10" s="96">
         <v>35</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="97">
         <v>4.7E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="97">
+      <c r="A11" s="96">
         <v>40</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="97">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="97">
+      <c r="A12" s="96">
         <v>45</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="97">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="97">
+      <c r="A13" s="96">
         <v>50</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="97">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="97">
+      <c r="A14" s="96">
         <v>55</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="97">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="97">
+      <c r="A15" s="96">
         <v>60</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="97">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="97">
+      <c r="A16" s="96">
         <v>65</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="97">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -5081,7 +5073,7 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I112"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/MISERS_PlanInfo.xlsx
+++ b/Data_inputs/MISERS_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
   <si>
     <t>Notes</t>
   </si>
@@ -279,9 +279,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>G32</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
   </si>
   <si>
     <t>C14</t>
-  </si>
-  <si>
-    <t>C10</t>
   </si>
   <si>
     <t xml:space="preserve">Requirement
@@ -664,101 +658,6 @@
   </si>
   <si>
     <t>B16</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Retirement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Percent of Eligible Members Retiring</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Conservation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Officers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Corrections
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Officers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Others</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ref</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1197,17 +1096,52 @@
       <t xml:space="preserve"> - Are the retirement benefits actuarially reduced if x% survivor options are chosen? Yes </t>
     </r>
   </si>
+  <si>
+    <t>qxr.conservation</t>
+  </si>
+  <si>
+    <t>qxr.corrections</t>
+  </si>
+  <si>
+    <t>qxr.others</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>yos</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>qxt.yos</t>
+  </si>
+  <si>
+    <t>qxt.age</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>qxd.nonduty</t>
+  </si>
+  <si>
+    <t>qxd.duty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1328,12 +1262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1346,6 +1274,11 @@
     </font>
     <font>
       <sz val="11.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1449,7 +1382,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,12 +1470,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,17 +1480,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1708,79 +1624,25 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1808,14 +1670,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1995,6 +1887,49 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>551595</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="285750"/>
+          <a:ext cx="6838095" cy="9219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2327,16 +2262,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>113417</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>170257</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>189617</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>94057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2353,7 +2288,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591800" y="876300"/>
+          <a:off x="7219950" y="266700"/>
           <a:ext cx="7066667" cy="9542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2413,13 +2348,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>265867</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>37414</xdr:rowOff>
@@ -2456,16 +2391,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>227745</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>17898</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>151567</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2482,8 +2417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="895350"/>
-          <a:ext cx="6838095" cy="9219048"/>
+          <a:off x="6172200" y="1066800"/>
+          <a:ext cx="6666667" cy="5485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3014,47 +2949,47 @@
     </row>
     <row r="5" spans="1:4" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>153</v>
       </c>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>138</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80" t="s">
-        <v>164</v>
+      <c r="A9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,10 +2997,10 @@
       <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="129">
+      <c r="A11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="104">
         <v>0.03</v>
       </c>
     </row>
@@ -3178,482 +3113,554 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="2" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="108"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="111">
+        <v>45</v>
+      </c>
+      <c r="B7" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C7" s="113">
+        <v>0</v>
+      </c>
+      <c r="D7" s="113">
+        <v>0</v>
+      </c>
+      <c r="E7" s="108"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="111">
+        <v>46</v>
+      </c>
+      <c r="B8" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C8" s="113">
+        <v>0</v>
+      </c>
+      <c r="D8" s="113">
+        <v>0</v>
+      </c>
+      <c r="E8" s="108"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="111">
+        <v>47</v>
+      </c>
+      <c r="B9" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C9" s="113">
+        <v>0</v>
+      </c>
+      <c r="D9" s="113">
+        <v>0</v>
+      </c>
+      <c r="E9" s="108"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="111">
+        <v>48</v>
+      </c>
+      <c r="B10" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C10" s="113">
+        <v>0</v>
+      </c>
+      <c r="D10" s="113">
+        <v>0</v>
+      </c>
+      <c r="E10" s="108"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="111">
+        <v>49</v>
+      </c>
+      <c r="B11" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C11" s="113">
+        <v>0</v>
+      </c>
+      <c r="D11" s="113">
+        <v>0</v>
+      </c>
+      <c r="E11" s="108"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="111">
+        <v>50</v>
+      </c>
+      <c r="B12" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C12" s="113">
+        <v>0</v>
+      </c>
+      <c r="D12" s="113">
+        <v>0</v>
+      </c>
+      <c r="E12" s="108"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="111">
+        <v>51</v>
+      </c>
+      <c r="B13" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C13" s="112">
+        <v>0.27</v>
+      </c>
+      <c r="D13" s="113">
+        <v>0</v>
+      </c>
+      <c r="E13" s="108"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="111">
+        <v>52</v>
+      </c>
+      <c r="B14" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C14" s="112">
+        <v>0.21</v>
+      </c>
+      <c r="D14" s="113">
+        <v>0</v>
+      </c>
+      <c r="E14" s="108"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="111">
+        <v>53</v>
+      </c>
+      <c r="B15" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C15" s="112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="113">
+        <v>0</v>
+      </c>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="111">
+        <v>54</v>
+      </c>
+      <c r="B16" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C16" s="112">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="113">
+        <v>0</v>
+      </c>
+      <c r="E16" s="108"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="111">
+        <v>55</v>
+      </c>
+      <c r="B17" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C17" s="112">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="112">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="108"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="111">
+        <v>56</v>
+      </c>
+      <c r="B18" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C18" s="112">
+        <v>0.22</v>
+      </c>
+      <c r="D18" s="112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="111">
+        <v>57</v>
+      </c>
+      <c r="B19" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C19" s="112">
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="112">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="108"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="111">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="E11" s="132"/>
-      <c r="F11" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="100">
-        <v>45</v>
-      </c>
-      <c r="F12" s="101">
+      <c r="B20" s="112">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="103">
-        <v>46</v>
-      </c>
-      <c r="F13" s="104">
-        <v>28</v>
-      </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="103">
-        <v>47</v>
-      </c>
-      <c r="F14" s="104">
-        <v>28</v>
-      </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="103">
-        <v>48</v>
-      </c>
-      <c r="F15" s="104">
-        <v>28</v>
-      </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="103">
-        <v>49</v>
-      </c>
-      <c r="F16" s="104">
-        <v>28</v>
-      </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="103">
-        <v>50</v>
-      </c>
-      <c r="F17" s="104">
-        <v>28</v>
-      </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="103">
-        <v>51</v>
-      </c>
-      <c r="F18" s="104">
-        <v>28</v>
-      </c>
-      <c r="G18" s="106">
-        <v>0.27</v>
-      </c>
-      <c r="H18" s="105"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="103">
-        <v>52</v>
-      </c>
-      <c r="F19" s="104">
-        <v>28</v>
-      </c>
-      <c r="G19" s="107">
-        <v>21</v>
-      </c>
-      <c r="H19" s="105"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="103">
-        <v>53</v>
-      </c>
-      <c r="F20" s="104">
-        <v>28</v>
-      </c>
-      <c r="G20" s="107">
-        <v>14</v>
-      </c>
-      <c r="H20" s="105"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="103">
-        <v>54</v>
-      </c>
-      <c r="F21" s="104">
-        <v>28</v>
-      </c>
-      <c r="G21" s="107">
-        <v>16</v>
-      </c>
-      <c r="H21" s="105"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="103">
-        <v>55</v>
-      </c>
-      <c r="F22" s="104">
-        <v>28</v>
-      </c>
-      <c r="G22" s="107">
-        <v>16</v>
-      </c>
-      <c r="H22" s="106">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="103">
-        <v>56</v>
-      </c>
-      <c r="F23" s="104">
-        <v>28</v>
-      </c>
-      <c r="G23" s="107">
-        <v>22</v>
-      </c>
-      <c r="H23" s="108">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="103">
-        <v>57</v>
-      </c>
-      <c r="F24" s="104">
-        <v>28</v>
-      </c>
-      <c r="G24" s="107">
-        <v>15</v>
-      </c>
-      <c r="H24" s="108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="103">
-        <v>58</v>
-      </c>
-      <c r="F25" s="104">
-        <v>28</v>
-      </c>
-      <c r="G25" s="107">
-        <v>12</v>
-      </c>
-      <c r="H25" s="108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="103">
+      <c r="C20" s="112">
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="112">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="108"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="111">
         <v>59</v>
       </c>
-      <c r="F26" s="104">
-        <v>28</v>
-      </c>
-      <c r="G26" s="107">
-        <v>12</v>
-      </c>
-      <c r="H26" s="108">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="103">
+      <c r="B21" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C21" s="112">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="112">
+        <v>0.11</v>
+      </c>
+      <c r="E21" s="108"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="111">
         <v>60</v>
       </c>
-      <c r="F27" s="104">
-        <v>28</v>
-      </c>
-      <c r="G27" s="107">
-        <v>18</v>
-      </c>
-      <c r="H27" s="108">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="103">
+      <c r="B22" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C22" s="112">
+        <v>0.18</v>
+      </c>
+      <c r="D22" s="112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="111">
         <v>61</v>
       </c>
-      <c r="F28" s="104">
-        <v>28</v>
-      </c>
-      <c r="G28" s="107">
-        <v>18</v>
-      </c>
-      <c r="H28" s="108">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="103">
+      <c r="B23" s="112">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C23" s="112">
+        <v>0.18</v>
+      </c>
+      <c r="D23" s="112">
+        <v>0.13</v>
+      </c>
+      <c r="E23" s="108"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="111">
         <v>62</v>
       </c>
-      <c r="F29" s="104">
-        <v>50</v>
-      </c>
-      <c r="G29" s="107">
-        <v>32</v>
-      </c>
-      <c r="H29" s="108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="103">
+      <c r="B24" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="112">
+        <v>0.32</v>
+      </c>
+      <c r="D24" s="112">
+        <v>0.22</v>
+      </c>
+      <c r="E24" s="108"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="111">
         <v>63</v>
       </c>
-      <c r="F30" s="104">
-        <v>40</v>
-      </c>
-      <c r="G30" s="107">
-        <v>24</v>
-      </c>
-      <c r="H30" s="108">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="103">
+      <c r="B25" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="112">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="112">
+        <v>0.19</v>
+      </c>
+      <c r="E25" s="108"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="111">
         <v>64</v>
       </c>
-      <c r="F31" s="104">
-        <v>40</v>
-      </c>
-      <c r="G31" s="107">
-        <v>22</v>
-      </c>
-      <c r="H31" s="108">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="103">
+      <c r="B26" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="112">
+        <v>0.22</v>
+      </c>
+      <c r="D26" s="112">
+        <v>0.16</v>
+      </c>
+      <c r="E26" s="108"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="111">
         <v>65</v>
       </c>
-      <c r="F32" s="104">
-        <v>60</v>
-      </c>
-      <c r="G32" s="107">
-        <v>16</v>
-      </c>
-      <c r="H32" s="108">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="103">
+      <c r="B27" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="112">
+        <v>0.16</v>
+      </c>
+      <c r="D27" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="108"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="111">
         <v>66</v>
       </c>
-      <c r="F33" s="104">
-        <v>50</v>
-      </c>
-      <c r="G33" s="107">
-        <v>22</v>
-      </c>
-      <c r="H33" s="108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="103">
+      <c r="B28" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="112">
+        <v>0.22</v>
+      </c>
+      <c r="D28" s="112">
+        <v>0.22</v>
+      </c>
+      <c r="E28" s="108"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="111">
         <v>67</v>
       </c>
-      <c r="F34" s="104">
-        <v>50</v>
-      </c>
-      <c r="G34" s="107">
-        <v>30</v>
-      </c>
-      <c r="H34" s="108">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="103">
+      <c r="B29" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="112">
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="112">
+        <v>0.21</v>
+      </c>
+      <c r="E29" s="108"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="111">
         <v>68</v>
       </c>
-      <c r="F35" s="104">
-        <v>50</v>
-      </c>
-      <c r="G35" s="107">
-        <v>40</v>
-      </c>
-      <c r="H35" s="108">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="103">
+      <c r="B30" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="112">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="108"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="111">
         <v>69</v>
       </c>
-      <c r="F36" s="104">
-        <v>50</v>
-      </c>
-      <c r="G36" s="107">
-        <v>50</v>
-      </c>
-      <c r="H36" s="108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="103">
+      <c r="B31" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="112">
+        <v>0.22</v>
+      </c>
+      <c r="E31" s="108"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="111">
         <v>70</v>
       </c>
-      <c r="F37" s="104">
-        <v>100</v>
-      </c>
-      <c r="G37" s="107">
-        <v>100</v>
-      </c>
-      <c r="H37" s="108">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="103">
+      <c r="B32" s="112">
+        <v>1</v>
+      </c>
+      <c r="C32" s="112">
+        <v>1</v>
+      </c>
+      <c r="D32" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="108"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="111">
         <v>71</v>
       </c>
-      <c r="F38" s="104">
-        <v>100</v>
-      </c>
-      <c r="G38" s="107">
-        <v>100</v>
-      </c>
-      <c r="H38" s="108">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="103">
+      <c r="B33" s="112">
+        <v>1</v>
+      </c>
+      <c r="C33" s="112">
+        <v>1</v>
+      </c>
+      <c r="D33" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="108"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="111">
         <v>72</v>
       </c>
-      <c r="F39" s="104">
-        <v>100</v>
-      </c>
-      <c r="G39" s="107">
-        <v>100</v>
-      </c>
-      <c r="H39" s="108">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="103">
+      <c r="B34" s="112">
+        <v>1</v>
+      </c>
+      <c r="C34" s="112">
+        <v>1</v>
+      </c>
+      <c r="D34" s="112">
+        <v>0.7</v>
+      </c>
+      <c r="E34" s="108"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="111">
         <v>73</v>
       </c>
-      <c r="F40" s="104">
-        <v>100</v>
-      </c>
-      <c r="G40" s="107">
-        <v>100</v>
-      </c>
-      <c r="H40" s="108">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="103">
+      <c r="B35" s="112">
+        <v>1</v>
+      </c>
+      <c r="C35" s="112">
+        <v>1</v>
+      </c>
+      <c r="D35" s="112">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="108"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="111">
         <v>74</v>
       </c>
-      <c r="F41" s="104">
-        <v>100</v>
-      </c>
-      <c r="G41" s="107">
-        <v>100</v>
-      </c>
-      <c r="H41" s="108">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="109">
+      <c r="B36" s="112">
+        <v>1</v>
+      </c>
+      <c r="C36" s="112">
+        <v>1</v>
+      </c>
+      <c r="D36" s="112">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="108"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="111">
         <v>75</v>
       </c>
-      <c r="F42" s="110">
-        <v>100</v>
-      </c>
-      <c r="G42" s="111">
-        <v>100</v>
-      </c>
-      <c r="H42" s="112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="114">
-        <v>1603</v>
-      </c>
-      <c r="G43" s="114">
-        <v>1604</v>
-      </c>
-      <c r="H43" s="115">
-        <v>1605</v>
-      </c>
+      <c r="B37" s="112">
+        <v>1</v>
+      </c>
+      <c r="C37" s="112">
+        <v>1</v>
+      </c>
+      <c r="D37" s="112">
+        <v>1</v>
+      </c>
+      <c r="E37" s="108"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="108"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:H10"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
@@ -3674,50 +3681,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>139</v>
+      <c r="B4" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="117">
+      <c r="B5" s="92">
         <v>55</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="93">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="119">
+      <c r="B6" s="94">
         <v>56</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="95">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="119">
+      <c r="B7" s="94">
         <v>57</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="95">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="119">
+      <c r="B8" s="94">
         <v>58</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="95">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="121">
+      <c r="B9" s="96">
         <v>59</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="97">
         <v>7</v>
       </c>
     </row>
@@ -3732,8 +3739,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,31 +3766,31 @@
     </row>
     <row r="4" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="130" t="s">
-        <v>155</v>
+      <c r="A5" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>156</v>
+      <c r="A6" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
     </row>
     <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -3824,198 +3831,199 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>0</v>
+      </c>
+      <c r="B6" s="114">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>1</v>
+      </c>
+      <c r="B7" s="114">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="18"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>2</v>
+      </c>
+      <c r="B8" s="114">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="18"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>3</v>
+      </c>
+      <c r="B9" s="114">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>4</v>
+      </c>
+      <c r="B10" s="114">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4028,190 +4036,207 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="A5:N34"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="116">
+        <v>20</v>
+      </c>
+      <c r="B6" s="117">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="116">
+        <v>25</v>
+      </c>
+      <c r="B7" s="118">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="116">
+        <v>30</v>
+      </c>
+      <c r="B8" s="118">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="116">
+        <v>35</v>
+      </c>
+      <c r="B9" s="118">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="116">
+        <v>40</v>
+      </c>
+      <c r="B10" s="118">
+        <v>2.06E-2</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="116">
+        <v>45</v>
+      </c>
+      <c r="B11" s="118">
+        <v>1.84E-2</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="116">
+        <v>50</v>
+      </c>
+      <c r="B12" s="118">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="116">
+        <v>55</v>
+      </c>
+      <c r="B13" s="118">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="116">
+        <v>60</v>
+      </c>
+      <c r="B14" s="118">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4247,24 +4272,24 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>163</v>
+      <c r="A4" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="78"/>
+      <c r="A5" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="71"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -4286,17 +4311,18 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="16"/>
+    <col min="2" max="2" width="14.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4312,87 +4338,182 @@
         <v>53</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>167</v>
+      </c>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="120">
+        <v>25</v>
+      </c>
+      <c r="B6" s="121">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C6" s="121">
+        <v>0</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="120">
+        <v>30</v>
+      </c>
+      <c r="B7" s="121">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C7" s="121">
+        <v>1E-4</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
+        <v>35</v>
+      </c>
+      <c r="B8" s="121">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="121">
+        <v>1E-4</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="120">
+        <v>40</v>
+      </c>
+      <c r="B9" s="121">
+        <v>2E-3</v>
+      </c>
+      <c r="C9" s="121">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="120">
+        <v>45</v>
+      </c>
+      <c r="B10" s="121">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="C10" s="121">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
+        <v>50</v>
+      </c>
+      <c r="B11" s="121">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="C11" s="121">
+        <v>5.9999999999999995E-4</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="120">
+        <v>55</v>
+      </c>
+      <c r="B12" s="121">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C12" s="121">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="120">
+        <v>60</v>
+      </c>
+      <c r="B13" s="121">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C13" s="121">
+        <v>1.1000000000000001E-3</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
+        <v>65</v>
+      </c>
+      <c r="B14" s="121">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C14" s="121">
+        <v>1.6000000000000001E-3</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4432,28 +4553,28 @@
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="52"/>
+      <c r="B5" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4469,8 +4590,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4615,7 @@
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -4528,42 +4649,42 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>117</v>
+      <c r="C3" s="75" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4605,73 +4726,73 @@
         <v>54</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4704,10 +4825,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4723,7 +4844,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -4742,10 +4863,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4753,18 +4874,18 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="85" t="s">
         <v>126</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4815,24 +4936,24 @@
       <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="99" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="93">
+        <v>127</v>
+      </c>
+      <c r="B8" s="86">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="93">
+        <v>128</v>
+      </c>
+      <c r="B9" s="86">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -4841,30 +4962,30 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>142</v>
+      <c r="A12" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="126" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>144</v>
+      <c r="A14" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="123"/>
+      <c r="B16" s="98"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4910,14 +5031,14 @@
         <v>54</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="88" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4930,82 +5051,82 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
+      <c r="A7" s="89">
         <v>20</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="90">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="96">
+      <c r="A8" s="89">
         <v>25</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="90">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="96">
+      <c r="A9" s="89">
         <v>30</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B9" s="90">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="96">
+      <c r="A10" s="89">
         <v>35</v>
       </c>
-      <c r="B10" s="97">
+      <c r="B10" s="90">
         <v>4.7E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="96">
+      <c r="A11" s="89">
         <v>40</v>
       </c>
-      <c r="B11" s="97">
+      <c r="B11" s="90">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="96">
+      <c r="A12" s="89">
         <v>45</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="90">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="96">
+      <c r="A13" s="89">
         <v>50</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="90">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="96">
+      <c r="A14" s="89">
         <v>55</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="90">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="96">
+      <c r="A15" s="89">
         <v>60</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="90">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="96">
+      <c r="A16" s="89">
         <v>65</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="90">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -5081,7 +5202,7 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="29" customWidth="1"/>
-    <col min="4" max="8" width="32.28515625" style="64" customWidth="1"/>
+    <col min="4" max="8" width="32.28515625" style="57" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -5104,1076 +5225,1076 @@
         <v>54</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="67"/>
+        <v>104</v>
+      </c>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="E6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="F6" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="G6" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="65" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="C7" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="E7" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="F7" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="G7" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="H7" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>105</v>
+      <c r="I7" s="68" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="61"/>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
     </row>
     <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
     </row>
     <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
     </row>
     <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
     </row>
     <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="68"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="61"/>
     </row>
     <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
     </row>
     <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
     </row>
     <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
     </row>
     <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
     </row>
     <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
     </row>
     <row r="100" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
     </row>
     <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
     </row>
     <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
     </row>
     <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
     </row>
     <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
     </row>
     <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
     </row>
     <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="L106" s="59" t="s">
+      <c r="B106" s="50"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="L106" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M106" t="s">
+        <v>100</v>
+      </c>
+      <c r="N106" t="s">
         <v>101</v>
       </c>
-      <c r="M106" t="s">
+      <c r="O106" t="s">
         <v>102</v>
-      </c>
-      <c r="N106" t="s">
-        <v>103</v>
-      </c>
-      <c r="O106" t="s">
-        <v>104</v>
       </c>
       <c r="P106" s="21">
         <v>42185</v>
@@ -6196,64 +6317,64 @@
     </row>
     <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
     </row>
     <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
     </row>
     <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
       <c r="O109" s="22"/>
       <c r="Q109" s="22"/>
       <c r="S109" s="22"/>
     </row>
     <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
     </row>
     <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
     </row>
     <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
-      <c r="C112" s="62"/>
-      <c r="F112" s="87"/>
+      <c r="C112" s="55"/>
+      <c r="F112" s="80"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="59"/>
+      <c r="B113" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6290,7 +6411,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6300,30 +6421,30 @@
         <v>54</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6363,8 +6484,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="53" t="s">
-        <v>113</v>
+      <c r="D15" s="46" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/MISERS_PlanInfo.xlsx
+++ b/Data_inputs/MISERS_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1670,9 +1670,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,10 +1691,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,8 +1703,11 @@
     <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3116,7 +3116,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,519 +3146,519 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="108"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="111">
+      <c r="A7" s="110">
         <v>45</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="112">
         <v>0</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="112">
         <v>0</v>
       </c>
-      <c r="E7" s="108"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="111">
+      <c r="A8" s="110">
         <v>46</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="112">
         <v>0</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="112">
         <v>0</v>
       </c>
-      <c r="E8" s="108"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111">
+      <c r="A9" s="110">
         <v>47</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="112">
         <v>0</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="112">
         <v>0</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="107"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111">
+      <c r="A10" s="110">
         <v>48</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="112">
         <v>0</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="112">
         <v>0</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="107"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>49</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="112">
         <v>0</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="112">
         <v>0</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="107"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="111">
+      <c r="A12" s="110">
         <v>50</v>
       </c>
-      <c r="B12" s="112">
+      <c r="B12" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="112">
         <v>0</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="112">
         <v>0</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="107"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="111">
+      <c r="A13" s="110">
         <v>51</v>
       </c>
-      <c r="B13" s="112">
+      <c r="B13" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C13" s="112">
+      <c r="C13" s="111">
         <v>0.27</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="112">
         <v>0</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="107"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="111">
+      <c r="A14" s="110">
         <v>52</v>
       </c>
-      <c r="B14" s="112">
+      <c r="B14" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C14" s="112">
+      <c r="C14" s="111">
         <v>0.21</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="112">
         <v>0</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="107"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="111">
+      <c r="A15" s="110">
         <v>53</v>
       </c>
-      <c r="B15" s="112">
+      <c r="B15" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="111">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="112">
         <v>0</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="107"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="111">
+      <c r="A16" s="110">
         <v>54</v>
       </c>
-      <c r="B16" s="112">
+      <c r="B16" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C16" s="112">
+      <c r="C16" s="111">
         <v>0.16</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="112">
         <v>0</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="107"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="111">
+      <c r="A17" s="110">
         <v>55</v>
       </c>
-      <c r="B17" s="112">
+      <c r="B17" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="111">
         <v>0.16</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="111">
         <v>0.15</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="107"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="111">
+      <c r="A18" s="110">
         <v>56</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="111">
         <v>0.22</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="111">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="107"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="111">
+      <c r="A19" s="110">
         <v>57</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C19" s="112">
+      <c r="C19" s="111">
         <v>0.15</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="111">
         <v>0.1</v>
       </c>
-      <c r="E19" s="108"/>
+      <c r="E19" s="107"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="111">
+      <c r="A20" s="110">
         <v>58</v>
       </c>
-      <c r="B20" s="112">
+      <c r="B20" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C20" s="112">
+      <c r="C20" s="111">
         <v>0.12</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="111">
         <v>0.1</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="107"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="111">
+      <c r="A21" s="110">
         <v>59</v>
       </c>
-      <c r="B21" s="112">
+      <c r="B21" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C21" s="112">
+      <c r="C21" s="111">
         <v>0.12</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="111">
         <v>0.11</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="107"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="111">
+      <c r="A22" s="110">
         <v>60</v>
       </c>
-      <c r="B22" s="112">
+      <c r="B22" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C22" s="112">
+      <c r="C22" s="111">
         <v>0.18</v>
       </c>
-      <c r="D22" s="112">
+      <c r="D22" s="111">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="107"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="111">
+      <c r="A23" s="110">
         <v>61</v>
       </c>
-      <c r="B23" s="112">
+      <c r="B23" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C23" s="112">
+      <c r="C23" s="111">
         <v>0.18</v>
       </c>
-      <c r="D23" s="112">
+      <c r="D23" s="111">
         <v>0.13</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="107"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="111">
+      <c r="A24" s="110">
         <v>62</v>
       </c>
-      <c r="B24" s="112">
+      <c r="B24" s="111">
         <v>0.5</v>
       </c>
-      <c r="C24" s="112">
+      <c r="C24" s="111">
         <v>0.32</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="111">
         <v>0.22</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="107"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="111">
+      <c r="A25" s="110">
         <v>63</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="111">
         <v>0.4</v>
       </c>
-      <c r="C25" s="112">
+      <c r="C25" s="111">
         <v>0.24</v>
       </c>
-      <c r="D25" s="112">
+      <c r="D25" s="111">
         <v>0.19</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="107"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="111">
+      <c r="A26" s="110">
         <v>64</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="111">
         <v>0.4</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="111">
         <v>0.22</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="111">
         <v>0.16</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="107"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="111">
+      <c r="A27" s="110">
         <v>65</v>
       </c>
-      <c r="B27" s="112">
+      <c r="B27" s="111">
         <v>0.6</v>
       </c>
-      <c r="C27" s="112">
+      <c r="C27" s="111">
         <v>0.16</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="111">
         <v>0.25</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="107"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="111">
+      <c r="A28" s="110">
         <v>66</v>
       </c>
-      <c r="B28" s="112">
+      <c r="B28" s="111">
         <v>0.5</v>
       </c>
-      <c r="C28" s="112">
+      <c r="C28" s="111">
         <v>0.22</v>
       </c>
-      <c r="D28" s="112">
+      <c r="D28" s="111">
         <v>0.22</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="107"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="111">
+      <c r="A29" s="110">
         <v>67</v>
       </c>
-      <c r="B29" s="112">
+      <c r="B29" s="111">
         <v>0.5</v>
       </c>
-      <c r="C29" s="112">
+      <c r="C29" s="111">
         <v>0.3</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="111">
         <v>0.21</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="107"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="111">
+      <c r="A30" s="110">
         <v>68</v>
       </c>
-      <c r="B30" s="112">
+      <c r="B30" s="111">
         <v>0.5</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="111">
         <v>0.4</v>
       </c>
-      <c r="D30" s="112">
+      <c r="D30" s="111">
         <v>0.2</v>
       </c>
-      <c r="E30" s="108"/>
+      <c r="E30" s="107"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="111">
+      <c r="A31" s="110">
         <v>69</v>
       </c>
-      <c r="B31" s="112">
+      <c r="B31" s="111">
         <v>0.5</v>
       </c>
-      <c r="C31" s="112">
+      <c r="C31" s="111">
         <v>0.5</v>
       </c>
-      <c r="D31" s="112">
+      <c r="D31" s="111">
         <v>0.22</v>
       </c>
-      <c r="E31" s="108"/>
+      <c r="E31" s="107"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="111">
+      <c r="A32" s="110">
         <v>70</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="111">
         <v>1</v>
       </c>
-      <c r="C32" s="112">
+      <c r="C32" s="111">
         <v>1</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D32" s="111">
         <v>0.5</v>
       </c>
-      <c r="E32" s="108"/>
+      <c r="E32" s="107"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="111">
+      <c r="A33" s="110">
         <v>71</v>
       </c>
-      <c r="B33" s="112">
+      <c r="B33" s="111">
         <v>1</v>
       </c>
-      <c r="C33" s="112">
+      <c r="C33" s="111">
         <v>1</v>
       </c>
-      <c r="D33" s="112">
+      <c r="D33" s="111">
         <v>0.6</v>
       </c>
-      <c r="E33" s="108"/>
+      <c r="E33" s="107"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="111">
+      <c r="A34" s="110">
         <v>72</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="111">
         <v>1</v>
       </c>
-      <c r="C34" s="112">
+      <c r="C34" s="111">
         <v>1</v>
       </c>
-      <c r="D34" s="112">
+      <c r="D34" s="111">
         <v>0.7</v>
       </c>
-      <c r="E34" s="108"/>
+      <c r="E34" s="107"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="111">
+      <c r="A35" s="110">
         <v>73</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="111">
         <v>1</v>
       </c>
-      <c r="C35" s="112">
+      <c r="C35" s="111">
         <v>1</v>
       </c>
-      <c r="D35" s="112">
+      <c r="D35" s="111">
         <v>0.8</v>
       </c>
-      <c r="E35" s="108"/>
+      <c r="E35" s="107"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="111">
+      <c r="A36" s="110">
         <v>74</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="111">
         <v>1</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="111">
         <v>1</v>
       </c>
-      <c r="D36" s="112">
+      <c r="D36" s="111">
         <v>0.9</v>
       </c>
-      <c r="E36" s="108"/>
+      <c r="E36" s="107"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="111">
+      <c r="A37" s="110">
         <v>75</v>
       </c>
-      <c r="B37" s="112">
+      <c r="B37" s="111">
         <v>1</v>
       </c>
-      <c r="C37" s="112">
+      <c r="C37" s="111">
         <v>1</v>
       </c>
-      <c r="D37" s="112">
+      <c r="D37" s="111">
         <v>1</v>
       </c>
-      <c r="E37" s="108"/>
+      <c r="E37" s="107"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="108"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="107"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3789,8 +3789,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
     </row>
     <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -3877,7 +3877,7 @@
       <c r="A6" s="40">
         <v>0</v>
       </c>
-      <c r="B6" s="114">
+      <c r="B6" s="113">
         <v>0.12</v>
       </c>
       <c r="E6" s="38"/>
@@ -3889,7 +3889,7 @@
       <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="113">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E7" s="39"/>
@@ -3901,7 +3901,7 @@
       <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="114">
+      <c r="B8" s="113">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C8" s="18"/>
@@ -3914,7 +3914,7 @@
       <c r="A9" s="40">
         <v>3</v>
       </c>
-      <c r="B9" s="114">
+      <c r="B9" s="113">
         <v>0.05</v>
       </c>
       <c r="C9" s="18"/>
@@ -3927,7 +3927,7 @@
       <c r="A10" s="40">
         <v>4</v>
       </c>
-      <c r="B10" s="114">
+      <c r="B10" s="113">
         <v>0.04</v>
       </c>
       <c r="C10" s="18"/>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
-      <c r="B11" s="115"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="18"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -4071,38 +4071,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="115" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="116">
+      <c r="A6" s="115">
         <v>20</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="116">
         <v>0.04</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="116">
+      <c r="A7" s="115">
         <v>25</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="117">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="116">
+      <c r="A8" s="115">
         <v>30</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="117">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="C8" s="18"/>
@@ -4110,10 +4110,10 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="116">
+      <c r="A9" s="115">
         <v>35</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="117">
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="C9" s="18"/>
@@ -4121,10 +4121,10 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="116">
+      <c r="A10" s="115">
         <v>40</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="117">
         <v>2.06E-2</v>
       </c>
       <c r="C10" s="18"/>
@@ -4132,10 +4132,10 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="116">
+      <c r="A11" s="115">
         <v>45</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="117">
         <v>1.84E-2</v>
       </c>
       <c r="C11" s="18"/>
@@ -4143,10 +4143,10 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="116">
+      <c r="A12" s="115">
         <v>50</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="117">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="C12" s="18"/>
@@ -4154,10 +4154,10 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="116">
+      <c r="A13" s="115">
         <v>55</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="117">
         <v>1.6E-2</v>
       </c>
       <c r="C13" s="18"/>
@@ -4165,10 +4165,10 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="116">
+      <c r="A14" s="115">
         <v>60</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="117">
         <v>1.6E-2</v>
       </c>
       <c r="C14" s="18"/>
@@ -4314,7 +4314,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4352,129 +4352,129 @@
       <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="118" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="120">
+      <c r="A6" s="119">
         <v>25</v>
       </c>
-      <c r="B6" s="121">
+      <c r="B6" s="120">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="120">
         <v>0</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="120">
+      <c r="A7" s="119">
         <v>30</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="120">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="121">
+      <c r="C7" s="120">
         <v>1E-4</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="120">
+      <c r="A8" s="119">
         <v>35</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="120">
         <v>1E-3</v>
       </c>
-      <c r="C8" s="121">
+      <c r="C8" s="120">
         <v>1E-4</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="120">
+      <c r="A9" s="119">
         <v>40</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="120">
         <v>2E-3</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="120">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="120">
+      <c r="A10" s="119">
         <v>45</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="120">
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="120">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="119">
         <v>50</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="120">
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="C11" s="121">
+      <c r="C11" s="120">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="120">
+      <c r="A12" s="119">
         <v>55</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="120">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="120">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
+      <c r="A13" s="119">
         <v>60</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="120">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="120">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="120">
+      <c r="A14" s="119">
         <v>65</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="120">
         <v>2.3E-2</v>
       </c>
-      <c r="C14" s="121">
+      <c r="C14" s="120">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="D14" s="20"/>
@@ -4590,8 +4590,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4698,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5003,7 +5003,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/MISERS_PlanInfo.xlsx
+++ b/Data_inputs/MISERS_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
   <si>
     <t>Notes</t>
   </si>
@@ -186,54 +186,6 @@
   </si>
   <si>
     <t>Tier1</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Smoothing Period: 7 years
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AVA is adjusted to be within 40% of MVA:
-       - 60% ~ 140% of MVA?
-       - how to adjust? Simply make AVA = 60%*MVA or 140%*MVA when AVA is out of the range?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Need to find historical investment losses and gains.</t>
-    </r>
   </si>
   <si>
     <t>COLA and CPI</t>
@@ -341,12 +293,6 @@
   </si>
   <si>
     <t>factor.ca.disb</t>
-  </si>
-  <si>
-    <t>EEC.exempt.yos</t>
-  </si>
-  <si>
-    <t>EEC.rate</t>
   </si>
   <si>
     <t>K12</t>
@@ -1128,6 +1074,54 @@
   </si>
   <si>
     <t>qxd.duty</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Smoothing Period: 5 years
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AVA is adjusted to be within 30% of MVA:
+       - 60% ~ 140% of MVA?
+       - how to adjust? Simply make AVA = 60%*MVA or 140%*MVA when AVA is out of the range?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to find historical investment losses and gains.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2916,8 +2910,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,35 +2943,35 @@
     </row>
     <row r="5" spans="1:4" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,11 +2979,11 @@
     </row>
     <row r="9" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="73" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,7 +2992,7 @@
     </row>
     <row r="11" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="104">
         <v>0.03</v>
@@ -3116,7 +3110,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,18 +3125,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3154,16 +3148,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E6" s="107"/>
     </row>
@@ -3682,10 +3676,10 @@
   <sheetData>
     <row r="4" spans="2:3" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B4" s="91" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -3766,26 +3760,26 @@
     </row>
     <row r="4" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="105" t="s">
         <v>144</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,26 +3845,26 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,26 +4050,26 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,21 +4267,21 @@
     </row>
     <row r="4" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" s="71"/>
     </row>
@@ -4313,7 +4307,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4335,31 +4329,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -4530,7 +4524,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,26 +4547,26 @@
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" s="45"/>
     </row>
@@ -4649,13 +4643,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,20 +4665,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4696,77 +4690,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="B3" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>66</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -4776,12 +4763,10 @@
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -4791,8 +4776,6 @@
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4807,8 +4790,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,10 +4808,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4844,7 +4827,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -4855,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4863,10 +4846,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,18 +4857,18 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="85" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +4887,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,13 +4920,13 @@
     </row>
     <row r="7" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="86">
         <v>3.5000000000000003E-2</v>
@@ -4951,7 +4934,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="86">
         <v>2.5000000000000001E-2</v>
@@ -4962,15 +4945,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4978,10 +4961,10 @@
     </row>
     <row r="14" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,34 +5003,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="88" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,27 +5197,27 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,57 +5225,57 @@
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="F6" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="G6" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="56" t="s">
+      <c r="H6" s="58" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="F7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="G7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="H7" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>98</v>
-      </c>
       <c r="I7" s="68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6285,16 +6268,16 @@
       <c r="G106" s="60"/>
       <c r="H106" s="60"/>
       <c r="L106" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="M106" t="s">
+        <v>97</v>
+      </c>
+      <c r="N106" t="s">
+        <v>98</v>
+      </c>
+      <c r="O106" t="s">
         <v>99</v>
-      </c>
-      <c r="M106" t="s">
-        <v>100</v>
-      </c>
-      <c r="N106" t="s">
-        <v>101</v>
-      </c>
-      <c r="O106" t="s">
-        <v>102</v>
       </c>
       <c r="P106" s="21">
         <v>42185</v>
@@ -6408,43 +6391,43 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6485,7 +6468,7 @@
     </row>
     <row r="15" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/MISERS_PlanInfo.xlsx
+++ b/Data_inputs/MISERS_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
     <t>Notes</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>amort.method</t>
-  </si>
-  <si>
-    <t>I122</t>
   </si>
   <si>
     <t>AV2015 pdf page 20</t>
@@ -1076,6 +1073,12 @@
     <t>qxd.duty</t>
   </si>
   <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
     <r>
       <t>1. Smoothing Period: 5 years
 2.</t>
@@ -1089,8 +1092,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> AVA is adjusted to be within 30% of MVA:
-       - 60% ~ 140% of MVA?
-       - how to adjust? Simply make AVA = 60%*MVA or 140%*MVA when AVA is out of the range?</t>
+</t>
     </r>
     <r>
       <rPr>
@@ -2946,32 +2948,32 @@
         <v>57</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,7 +2985,7 @@
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,7 +2994,7 @@
     </row>
     <row r="11" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="104">
         <v>0.03</v>
@@ -3110,7 +3112,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3138,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,13 +3153,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="D6" s="109" t="s">
         <v>155</v>
-      </c>
-      <c r="D6" s="109" t="s">
-        <v>156</v>
       </c>
       <c r="E6" s="107"/>
     </row>
@@ -3676,10 +3678,10 @@
   <sheetData>
     <row r="4" spans="2:3" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B4" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -3760,18 +3762,18 @@
     </row>
     <row r="4" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -3779,7 +3781,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -3856,15 +3858,15 @@
         <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4061,7 +4063,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4069,7 +4071,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4240,7 +4242,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,10 +4272,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4281,7 +4283,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="71"/>
     </row>
@@ -4307,7 +4309,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4350,10 +4352,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="118" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>164</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -4524,7 +4526,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,10 +4557,10 @@
         <v>75</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4566,7 +4568,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="45"/>
     </row>
@@ -4646,10 +4648,10 @@
         <v>61</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,7 +4659,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4665,20 +4667,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4695,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I6"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,8 +4792,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4811,7 +4813,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,7 +4829,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -4838,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4857,18 +4859,18 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4928,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="86">
         <v>3.5000000000000003E-2</v>
@@ -4934,7 +4936,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="86">
         <v>2.5000000000000001E-2</v>
@@ -4945,15 +4947,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="102" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4961,10 +4963,10 @@
     </row>
     <row r="14" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="103" t="s">
         <v>132</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4986,7 +4988,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5014,7 +5016,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
@@ -5078,7 +5080,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="90">
-        <v>4.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5177,7 +5179,7 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F3" s="60"/>
     </row>
@@ -5279,14 +5281,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="B8" s="49"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
+      <c r="D8" s="67">
+        <v>0</v>
+      </c>
+      <c r="E8" s="66">
+        <v>0</v>
+      </c>
+      <c r="F8" s="76">
+        <v>0</v>
+      </c>
+      <c r="G8" s="66">
+        <v>1</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
@@ -6394,7 +6411,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6404,7 +6421,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -6414,20 +6431,20 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,7 +6485,7 @@
     </row>
     <row r="15" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/MISERS_PlanInfo.xlsx
+++ b/Data_inputs/MISERS_PlanInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>Notes</t>
   </si>
@@ -432,9 +432,6 @@
     </r>
   </si>
   <si>
-    <t>AV2015 pdf page 62-68</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>amort.method</t>
   </si>
   <si>
-    <t>AV2015 pdf page 20</t>
-  </si>
-  <si>
     <t>Original amount</t>
   </si>
   <si>
@@ -487,12 +481,6 @@
   </si>
   <si>
     <t>C12</t>
-  </si>
-  <si>
-    <t>Note:
-The unrecognzied returns are associated with assets of retirement fund and health insurance fund combined. 
-In the model, the deferred returns must be adjusted so that the total deferred return is equal to the difference between the initial AA and MA.
-Only effective when modeling all tiers together.</t>
   </si>
   <si>
     <t xml:space="preserve"> - Defined benefit plan
@@ -1124,6 +1112,22 @@
       </rPr>
       <t xml:space="preserve"> Need to find historical investment losses and gains.</t>
     </r>
+  </si>
+  <si>
+    <t>Note:
+The unrecognzied returns are associated with assets of retirement fund and health insurance fund combined. 
+In the model, the deferred returns must be adjusted so that the total deferred return is equal to the difference between the initial AA and MA.
+Only effective when modeling all tiers together.
+MA in AV: 10974806091 
+AA  in AV: 9961903019
+Amount recognized in each year:
+(10974806091 -  9961903019)/5 = 202580614.4</t>
+  </si>
+  <si>
+    <t>ExtFund.unadj</t>
+  </si>
+  <si>
+    <t>AV2014 pdf page 7</t>
   </si>
 </sst>
 </file>
@@ -2734,8 +2738,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,9 +2922,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,32 +2952,32 @@
         <v>57</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,7 +2989,7 @@
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="73" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,7 +2998,7 @@
     </row>
     <row r="11" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" s="104">
         <v>0.03</v>
@@ -3117,7 +3121,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
+    <col min="2" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,7 +3142,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3153,13 +3157,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" s="107"/>
     </row>
@@ -3678,10 +3682,10 @@
   <sheetData>
     <row r="4" spans="2:3" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B4" s="91" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -3741,8 +3745,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,18 +3766,18 @@
     </row>
     <row r="4" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="105" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,7 +3785,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,9 +3839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,15 +3862,15 @@
         <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,9 +4044,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4063,7 +4067,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4071,7 +4075,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,8 +4251,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4272,10 +4276,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4283,7 +4287,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="71"/>
     </row>
@@ -4315,10 +4319,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4352,10 +4356,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -4531,9 +4535,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="59.125" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,10 +4561,10 @@
         <v>75</v>
       </c>
       <c r="B4" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,7 +4572,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="45"/>
     </row>
@@ -4593,8 +4597,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.375" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4638,9 +4642,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="83.42578125" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="83.375" customWidth="1"/>
+    <col min="3" max="3" width="54.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4648,10 +4652,10 @@
         <v>61</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4659,7 +4663,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,20 +4671,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4704,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4792,15 +4796,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="73.125" customWidth="1"/>
+    <col min="3" max="3" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4813,7 +4817,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4829,7 +4833,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -4840,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4848,10 +4852,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4859,18 +4863,18 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="85" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4889,12 +4893,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
     <col min="2" max="2" width="102" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4928,7 +4932,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="86">
         <v>3.5000000000000003E-2</v>
@@ -4936,7 +4940,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="86">
         <v>2.5000000000000001E-2</v>
@@ -4947,15 +4951,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,10 +4967,10 @@
     </row>
     <row r="14" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4993,9 +4997,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5020,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
@@ -5179,17 +5183,17 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="29" customWidth="1"/>
-    <col min="4" max="8" width="32.28515625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="15" max="19" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="29" customWidth="1"/>
+    <col min="4" max="8" width="32.25" style="57" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="15" max="19" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5210,7 +5214,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="60"/>
     </row>
@@ -5218,9 +5222,6 @@
       <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
@@ -5256,28 +5257,28 @@
         <v>64</v>
       </c>
       <c r="B7" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="E7" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="F7" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="G7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="H7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="65" t="s">
-        <v>95</v>
-      </c>
       <c r="I7" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6285,16 +6286,16 @@
       <c r="G106" s="60"/>
       <c r="H106" s="60"/>
       <c r="L106" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M106" t="s">
         <v>96</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>97</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>98</v>
-      </c>
-      <c r="O106" t="s">
-        <v>99</v>
       </c>
       <c r="P106" s="21">
         <v>42185</v>
@@ -6390,15 +6391,15 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="51.75" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,7 +6412,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6421,7 +6422,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -6431,23 +6432,35 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7">
+        <v>202580614.40000001</v>
+      </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>202580614.40000001</v>
+      </c>
       <c r="G8">
         <v>-643447599</v>
       </c>
@@ -6460,6 +6473,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>202580614.40000001</v>
+      </c>
       <c r="G9">
         <v>1571818656</v>
       </c>
@@ -6472,6 +6491,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>202580614.40000001</v>
+      </c>
       <c r="G10">
         <v>77259408</v>
       </c>
@@ -6483,9 +6508,17 @@
         <v>12876568</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>202580614.40000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="46" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6499,18 +6532,84 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="35"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7">
+        <v>77954719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>